--- a/Routers_data.xlsx
+++ b/Routers_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E560E75-F1D8-4C07-8930-8D49E291E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,22 +49,22 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>192.168.10.1/24</t>
-  </si>
-  <si>
-    <t>10.1.1.1/24</t>
-  </si>
-  <si>
-    <t>192.168.11.1/24</t>
-  </si>
-  <si>
-    <t>192.168.11.2/24</t>
+    <t>192.168.11.1</t>
+  </si>
+  <si>
+    <t>192.168.11.2</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>10.1.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,6 +126,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -172,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,9 +209,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,22 +453,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -467,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -487,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -507,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -527,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -536,24 +574,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Routers_data.xlsx
+++ b/Routers_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E560E75-F1D8-4C07-8930-8D49E291E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BD6CA-1F8C-44E7-92C5-10E8C44AC30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12255" yWindow="3150" windowWidth="14475" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>192.168.11.1</t>
-  </si>
-  <si>
-    <t>192.168.11.2</t>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>10.1.1.1</t>
+    <t>192.168.11.1/24</t>
+  </si>
+  <si>
+    <t>192.168.11.2/24</t>
+  </si>
+  <si>
+    <t>192.168.10.1/24</t>
+  </si>
+  <si>
+    <t>10.1.1.1/24</t>
   </si>
 </sst>
 </file>
@@ -457,18 +457,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="1" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -548,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -579,7 +579,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -591,7 +591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Routers_data.xlsx
+++ b/Routers_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BD6CA-1F8C-44E7-92C5-10E8C44AC30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E560E75-F1D8-4C07-8930-8D49E291E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="3150" windowWidth="14475" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>192.168.11.1/24</t>
-  </si>
-  <si>
-    <t>192.168.11.2/24</t>
-  </si>
-  <si>
-    <t>192.168.10.1/24</t>
-  </si>
-  <si>
-    <t>10.1.1.1/24</t>
+    <t>192.168.11.1</t>
+  </si>
+  <si>
+    <t>192.168.11.2</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>10.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -457,18 +457,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -548,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -579,7 +579,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -591,7 +591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
